--- a/GradingSystemTestScript.xlsx
+++ b/GradingSystemTestScript.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/supat/Library/CloudStorage/GoogleDrive-supat.r@bu.ac.th/My Drive/166-CS436/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CS436\GradingSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{128D6638-A559-3A41-AA18-EE77891579B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF29FC9A-4F4F-4C7A-894F-3EE2DB016D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{262AFCAD-2EF7-CF4C-906E-CA1CD392A914}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{262AFCAD-2EF7-CF4C-906E-CA1CD392A914}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>TS</t>
   </si>
@@ -90,19 +90,52 @@
   </si>
   <si>
     <t>Error: Score should be in digit only (80\)</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Score is lower than zero-2</t>
+  </si>
+  <si>
+    <t>Not pass</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Fixed By Apichamp (17/10/2023)</t>
+  </si>
+  <si>
+    <t>Grade: B (101)</t>
+  </si>
+  <si>
+    <t>Grade: B (1000)</t>
+  </si>
+  <si>
+    <t>Input string was not in a correct format.</t>
+  </si>
+  <si>
+    <t>Input string was not in a correct format</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -119,7 +152,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -142,11 +175,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -154,10 +198,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -173,7 +229,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -469,21 +525,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D638519-3CC9-CA48-8CAC-B9BA2D75EACC}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" customWidth="1"/>
     <col min="3" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="29.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,8 +556,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -510,10 +570,14 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -523,10 +587,14 @@
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -536,10 +604,17 @@
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -549,10 +624,14 @@
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -562,10 +641,14 @@
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -575,10 +658,14 @@
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -588,10 +675,14 @@
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -601,10 +692,17 @@
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -614,10 +712,17 @@
       <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -627,10 +732,17 @@
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -640,8 +752,15 @@
       <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
